--- a/benchmark_results/benchmark_aggregated_table.xlsx
+++ b/benchmark_results/benchmark_aggregated_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,40 +502,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>0.271329702745632</v>
+        <v>0.3526760141644535</v>
       </c>
       <c r="D2" t="n">
-        <v>87.44569177513659</v>
+        <v>78.02713292635957</v>
       </c>
       <c r="E2" t="n">
-        <v>3.247860908508301</v>
+        <v>17.92351937294006</v>
       </c>
       <c r="F2" t="n">
-        <v>281.5</v>
+        <v>1210</v>
       </c>
       <c r="G2" t="n">
-        <v>0.004748655983480381</v>
+        <v>0.004790141666574302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01495093323737011</v>
+        <v>0.01661477054346788</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006762595799387461</v>
+        <v>0.0006389763647830954</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1785686128729083</v>
+        <v>0.2028606021182283</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2384891399402871</v>
+        <v>0.2555670959763242</v>
       </c>
       <c r="L2" t="n">
-        <v>11710.875</v>
+        <v>11742.875</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
@@ -543,40 +543,40 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.440004948045522</v>
+        <v>0.4979100380560235</v>
       </c>
       <c r="D3" t="n">
-        <v>130.7214702346351</v>
+        <v>128.7106519152526</v>
       </c>
       <c r="E3" t="n">
-        <v>2.818371891975403</v>
+        <v>3.706268787384033</v>
       </c>
       <c r="F3" t="n">
-        <v>367</v>
+        <v>477</v>
       </c>
       <c r="G3" t="n">
-        <v>0.005018317014966963</v>
+        <v>0.005168219951929145</v>
       </c>
       <c r="H3" t="n">
-        <v>0.01555077182202572</v>
+        <v>0.01704863726031468</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008040344715339602</v>
+        <v>0.000789656200689463</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1879152053651588</v>
+        <v>0.2047867855716111</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2438276349032512</v>
+        <v>0.265073110302829</v>
       </c>
       <c r="L3" t="n">
-        <v>11710.875</v>
+        <v>11742.875</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
@@ -584,40 +584,40 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4033248081841432</v>
+        <v>0.5015719015631467</v>
       </c>
       <c r="D4" t="n">
-        <v>133.2144311401676</v>
+        <v>118.146707700465</v>
       </c>
       <c r="E4" t="n">
-        <v>3.603445529937744</v>
+        <v>17.00326418876648</v>
       </c>
       <c r="F4" t="n">
-        <v>455</v>
+        <v>1445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.005050838192527557</v>
+        <v>0.005130834351631957</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01587201580672008</v>
+        <v>0.0185065206514685</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0008276807944157747</v>
+        <v>0.0007789331392195687</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1921112970957736</v>
+        <v>0.238928702400566</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2469007793479929</v>
+        <v>0.2723673874495365</v>
       </c>
       <c r="L4" t="n">
-        <v>11710.875</v>
+        <v>11742.875</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
@@ -625,81 +625,81 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>10</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5755868613784059</v>
+      </c>
+      <c r="D5" t="n">
+        <v>111.9680916530399</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.67506837844849</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2540</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.005065299740949413</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.01953935776334993</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.0007519408249493241</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.2661421844123093</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2722896600719095</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11742.875</v>
+      </c>
+      <c r="M5" t="n">
         <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8095238095238095</v>
-      </c>
-      <c r="D5" t="n">
-        <v>206.4690407087815</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.88435959815979</v>
-      </c>
-      <c r="F5" t="n">
-        <v>802</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.005542139428002494</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.01707090093219091</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.001065156822166746</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.2142444340938545</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.2606797123170761</v>
-      </c>
-      <c r="L5" t="n">
-        <v>11710.875</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2973684210526316</v>
+        <v>0.8827586206896552</v>
       </c>
       <c r="D6" t="n">
-        <v>75.02861028081632</v>
+        <v>140.2122930948974</v>
       </c>
       <c r="E6" t="n">
-        <v>8.823300838470459</v>
+        <v>13.15861797332764</v>
       </c>
       <c r="F6" t="n">
-        <v>662</v>
+        <v>1845</v>
       </c>
       <c r="G6" t="n">
-        <v>0.004609110315222486</v>
+        <v>0.005230238826795552</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01548342930392215</v>
+        <v>0.02017265265453822</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006029316224549937</v>
+        <v>0.0008372249015446361</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1879579347204155</v>
+        <v>0.2780367464763945</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2407233814048655</v>
+        <v>0.2744921014620419</v>
       </c>
       <c r="L6" t="n">
-        <v>11708.875</v>
+        <v>11742.875</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -707,163 +707,163 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4456521739130435</v>
+        <v>0.4601097509497679</v>
       </c>
       <c r="D7" t="n">
-        <v>121.9519454515132</v>
+        <v>100.3487457174424</v>
       </c>
       <c r="E7" t="n">
-        <v>2.886382818222046</v>
+        <v>3.045947432518005</v>
       </c>
       <c r="F7" t="n">
-        <v>352</v>
+        <v>305</v>
       </c>
       <c r="G7" t="n">
-        <v>0.005024183319962542</v>
+        <v>0.005012542627289507</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01573151860029802</v>
+        <v>0.01710978373555305</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007862747810457061</v>
+        <v>0.0006923724090489422</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1903781944954837</v>
+        <v>0.2059659549413663</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2437705483701494</v>
+        <v>0.2667598181774281</v>
       </c>
       <c r="L7" t="n">
-        <v>11708.875</v>
+        <v>11738.875</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5037295182196136</v>
+        <v>0.6077348066298343</v>
       </c>
       <c r="D8" t="n">
-        <v>152.9418918671989</v>
+        <v>115.8477526954782</v>
       </c>
       <c r="E8" t="n">
-        <v>2.586771965026855</v>
+        <v>4.928882837295532</v>
       </c>
       <c r="F8" t="n">
-        <v>395.5</v>
+        <v>571</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005167669917995465</v>
+        <v>0.005128821931491241</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01618269175549071</v>
+        <v>0.01842146034662236</v>
       </c>
       <c r="I8" t="n">
-        <v>0.000859099416551015</v>
+        <v>0.0007518224966460166</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1997351131421859</v>
+        <v>0.2276215162770502</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2515651692015201</v>
+        <v>0.2805228753042926</v>
       </c>
       <c r="L8" t="n">
-        <v>11708.875</v>
+        <v>11738.875</v>
       </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
         <v>4</v>
       </c>
-      <c r="B9" t="n">
-        <v>5</v>
-      </c>
       <c r="C9" t="n">
-        <v>0.489247311827957</v>
+        <v>0.6579076329076329</v>
       </c>
       <c r="D9" t="n">
-        <v>147.1110146143124</v>
+        <v>129.7374048030707</v>
       </c>
       <c r="E9" t="n">
-        <v>4.894263029098511</v>
+        <v>13.09037983417511</v>
       </c>
       <c r="F9" t="n">
-        <v>720</v>
+        <v>1531</v>
       </c>
       <c r="G9" t="n">
-        <v>0.005098459720611574</v>
+        <v>0.005428537246396358</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01692776243148312</v>
+        <v>0.0212334247311393</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0008327261940125499</v>
+        <v>0.0009029298323607954</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2102087475011282</v>
+        <v>0.2842298238800922</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2605105051509688</v>
+        <v>0.283109498629171</v>
       </c>
       <c r="L9" t="n">
-        <v>11708.875</v>
+        <v>11738.875</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
-        <v>1.206349206349206</v>
+        <v>0.6116642958748222</v>
       </c>
       <c r="D10" t="n">
-        <v>219.3175846191439</v>
+        <v>108.9069041720292</v>
       </c>
       <c r="E10" t="n">
-        <v>4.267783641815186</v>
+        <v>20.07218933105469</v>
       </c>
       <c r="F10" t="n">
-        <v>936</v>
+        <v>2186</v>
       </c>
       <c r="G10" t="n">
-        <v>0.005824213837820385</v>
+        <v>0.005178956212224187</v>
       </c>
       <c r="H10" t="n">
-        <v>0.018146361941383</v>
+        <v>0.02133455880437773</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001138110983466346</v>
+        <v>0.0007862978556417292</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2286571038180384</v>
+        <v>0.3100241628074905</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2679909877907271</v>
+        <v>0.2803073210826237</v>
       </c>
       <c r="L10" t="n">
-        <v>11708.875</v>
+        <v>11738.875</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -871,286 +871,286 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7361205375322384</v>
+        <v>0.4934065934065934</v>
       </c>
       <c r="D11" t="n">
-        <v>201.3882703298514</v>
+        <v>81.24236555363544</v>
       </c>
       <c r="E11" t="n">
-        <v>4.151405930519104</v>
+        <v>25.9470534324646</v>
       </c>
       <c r="F11" t="n">
-        <v>820</v>
+        <v>2108</v>
       </c>
       <c r="G11" t="n">
-        <v>0.005691415592322151</v>
+        <v>0.004881587938686002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.01806082337252463</v>
+        <v>0.02062992821158942</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00110438504787593</v>
+        <v>0.0006754745311134463</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2300913004434748</v>
+        <v>0.2922920717564756</v>
       </c>
       <c r="K11" t="n">
-        <v>0.267639440534276</v>
+        <v>0.273643317749959</v>
       </c>
       <c r="L11" t="n">
-        <v>11708.875</v>
+        <v>11740.875</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>1.01419502733204</v>
+        <v>1.377358490566038</v>
       </c>
       <c r="D12" t="n">
-        <v>236.0892370069165</v>
+        <v>173.1201270382684</v>
       </c>
       <c r="E12" t="n">
-        <v>3.80280065536499</v>
+        <v>6.007389307022095</v>
       </c>
       <c r="F12" t="n">
-        <v>897.5</v>
+        <v>1040</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006041087968747592</v>
+        <v>0.006488075458778528</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01856287720224</v>
+        <v>0.03015695037481918</v>
       </c>
       <c r="I12" t="n">
-        <v>0.001255842603100627</v>
+        <v>0.001518316980802788</v>
       </c>
       <c r="J12" t="n">
-        <v>0.244979980087582</v>
+        <v>0.4229519064056462</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2701599345599238</v>
+        <v>0.2992783429465075</v>
       </c>
       <c r="L12" t="n">
-        <v>11708.875</v>
+        <v>12214.875</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3633225954901058</v>
+        <v>0.6038732394366197</v>
       </c>
       <c r="D13" t="n">
-        <v>81.66405288212411</v>
+        <v>97.8628774716089</v>
       </c>
       <c r="E13" t="n">
-        <v>5.750185370445251</v>
+        <v>17.8310718536377</v>
       </c>
       <c r="F13" t="n">
-        <v>442</v>
+        <v>1745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004667850795806222</v>
+        <v>0.005063933064400309</v>
       </c>
       <c r="H13" t="n">
-        <v>0.01542151487238746</v>
+        <v>0.02309966708908618</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0006223327256249598</v>
+        <v>0.0007822034921444639</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1883159155913204</v>
+        <v>0.3552139811338345</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2400467741353378</v>
+        <v>0.2814707030997307</v>
       </c>
       <c r="L13" t="n">
-        <v>11834.875</v>
+        <v>12214.875</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4571969696969697</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="D14" t="n">
-        <v>124.2812953801049</v>
+        <v>97.95684521461985</v>
       </c>
       <c r="E14" t="n">
-        <v>2.999276995658875</v>
+        <v>2.705272912979126</v>
       </c>
       <c r="F14" t="n">
-        <v>372.5</v>
+        <v>265</v>
       </c>
       <c r="G14" t="n">
-        <v>0.004957202602335902</v>
+        <v>0.005071580157222517</v>
       </c>
       <c r="H14" t="n">
-        <v>0.01607055135748603</v>
+        <v>0.01806820281155138</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0007480921327390453</v>
+        <v>0.000716581783380853</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1944030578357335</v>
+        <v>0.211396173549735</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2521203122157621</v>
+        <v>0.2771748198115307</v>
       </c>
       <c r="L14" t="n">
-        <v>11834.875</v>
+        <v>12960.875</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6578690127077225</v>
+        <v>0.564844587352626</v>
       </c>
       <c r="D15" t="n">
-        <v>129.1644761582858</v>
+        <v>73.95944499971546</v>
       </c>
       <c r="E15" t="n">
-        <v>3.682101607322693</v>
+        <v>23.20190477371216</v>
       </c>
       <c r="F15" t="n">
-        <v>454.5</v>
+        <v>1716</v>
       </c>
       <c r="G15" t="n">
-        <v>0.005224866388635705</v>
+        <v>0.004724548083792929</v>
       </c>
       <c r="H15" t="n">
-        <v>0.01661647067189644</v>
+        <v>0.01877051605518992</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0008700217714028859</v>
+        <v>0.0005990685368913039</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1959613609568094</v>
+        <v>0.244778168396415</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2513646089863317</v>
+        <v>0.2752211000905725</v>
       </c>
       <c r="L15" t="n">
-        <v>11834.875</v>
+        <v>12962.875</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
-        <v>0.6642642642642642</v>
+        <v>0.5805860805860806</v>
       </c>
       <c r="D16" t="n">
-        <v>168.0739552180983</v>
+        <v>99.27361184033811</v>
       </c>
       <c r="E16" t="n">
-        <v>3.151426076889038</v>
+        <v>15.5731213092804</v>
       </c>
       <c r="F16" t="n">
-        <v>526</v>
+        <v>1546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.005357663959569044</v>
+        <v>0.005075748980700309</v>
       </c>
       <c r="H16" t="n">
-        <v>0.01736019324082155</v>
+        <v>0.02091637875832918</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0009378244962509688</v>
+        <v>0.0007680661110650934</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2138802123069763</v>
+        <v>0.2900898845122536</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2640086922670405</v>
+        <v>0.28361392443294</v>
       </c>
       <c r="L16" t="n">
-        <v>11834.875</v>
+        <v>22510.875</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="n">
-        <v>1.12781954887218</v>
+        <v>1.288461538461539</v>
       </c>
       <c r="D17" t="n">
-        <v>209.7099141019594</v>
+        <v>166.3758445829474</v>
       </c>
       <c r="E17" t="n">
-        <v>4.634974002838135</v>
+        <v>4.477813482284546</v>
       </c>
       <c r="F17" t="n">
-        <v>972</v>
+        <v>745</v>
       </c>
       <c r="G17" t="n">
-        <v>0.005795179076660844</v>
+        <v>0.006056367401893323</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01902402932303293</v>
+        <v>0.02770605809871967</v>
       </c>
       <c r="I17" t="n">
-        <v>0.001112750202641451</v>
+        <v>0.001395194458846862</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2451208697065063</v>
+        <v>0.3930545895196059</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2715532179597927</v>
+        <v>0.3155503535971922</v>
       </c>
       <c r="L17" t="n">
-        <v>11834.875</v>
+        <v>22510.875</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1158,81 +1158,81 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
         <v>6</v>
       </c>
-      <c r="B18" t="n">
-        <v>7</v>
-      </c>
       <c r="C18" t="n">
-        <v>0.8681318681318682</v>
+        <v>1.031271129141312</v>
       </c>
       <c r="D18" t="n">
-        <v>208.8000057642085</v>
+        <v>117.6776428157281</v>
       </c>
       <c r="E18" t="n">
-        <v>3.275861978530884</v>
+        <v>16.7568416595459</v>
       </c>
       <c r="F18" t="n">
-        <v>684</v>
+        <v>1470.5</v>
       </c>
       <c r="G18" t="n">
-        <v>0.005859859335553514</v>
+        <v>0.005526632147273799</v>
       </c>
       <c r="H18" t="n">
-        <v>0.01894162630772852</v>
+        <v>0.02677482153581074</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00115507973091943</v>
+        <v>0.001089025131950031</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2475733323845752</v>
+        <v>0.3773500643662989</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2740995975196824</v>
+        <v>0.2953942479960762</v>
       </c>
       <c r="L18" t="n">
-        <v>11834.875</v>
+        <v>22510.875</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
-        <v>1.234234234234234</v>
+        <v>0.766497461928934</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3307865608991</v>
+        <v>104.6673411928125</v>
       </c>
       <c r="E19" t="n">
-        <v>4.359633445739746</v>
+        <v>21.80240726470947</v>
       </c>
       <c r="F19" t="n">
-        <v>978</v>
+        <v>2282</v>
       </c>
       <c r="G19" t="n">
-        <v>0.006120004039626939</v>
+        <v>0.005325026932504978</v>
       </c>
       <c r="H19" t="n">
-        <v>0.01977786328771093</v>
+        <v>0.02797658600782984</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001262971386716172</v>
+        <v>0.000938573102358029</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2606529504770324</v>
+        <v>0.455968244789751</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2716059052341041</v>
+        <v>0.2963557785228352</v>
       </c>
       <c r="L19" t="n">
-        <v>11834.875</v>
+        <v>22510.875</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -1240,40 +1240,40 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>2</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="D20" t="n">
-        <v>101.6394411932197</v>
+        <v>98.38840841483636</v>
       </c>
       <c r="E20" t="n">
-        <v>1.967740058898926</v>
+        <v>2.927174091339111</v>
       </c>
       <c r="F20" t="n">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="G20" t="n">
-        <v>0.004846528867880503</v>
+        <v>0.005028677337309895</v>
       </c>
       <c r="H20" t="n">
-        <v>0.01545314399401346</v>
+        <v>0.01864775876437916</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0006876408879955612</v>
+        <v>0.0007494283914566041</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1896650329712898</v>
+        <v>0.2260914670924346</v>
       </c>
       <c r="K20" t="n">
-        <v>0.2425971632042239</v>
+        <v>0.2907719997068246</v>
       </c>
       <c r="L20" t="n">
-        <v>11834.875</v>
+        <v>11784.875</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -1281,40 +1281,40 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B21" t="n">
         <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3486394557823129</v>
+        <v>0.6890756302521008</v>
       </c>
       <c r="D21" t="n">
-        <v>75.12897108846035</v>
+        <v>99.06756443326717</v>
       </c>
       <c r="E21" t="n">
-        <v>13.150719165802</v>
+        <v>5.824307918548584</v>
       </c>
       <c r="F21" t="n">
-        <v>988</v>
+        <v>577</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00461732680375884</v>
+        <v>0.005372771223052204</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01637689112643808</v>
+        <v>0.0208014140089019</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005926499044408607</v>
+        <v>0.0009856868591629154</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2029120522110086</v>
+        <v>0.2434372407352102</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2521996841716923</v>
+        <v>0.283772965700462</v>
       </c>
       <c r="L21" t="n">
-        <v>11834.875</v>
+        <v>11784.875</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
@@ -1322,40 +1322,40 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.3962765957446808</v>
       </c>
       <c r="D22" t="n">
-        <v>151.251786576061</v>
+        <v>69.83085335735578</v>
       </c>
       <c r="E22" t="n">
-        <v>2.816495656967163</v>
+        <v>21.49479675292969</v>
       </c>
       <c r="F22" t="n">
-        <v>426</v>
+        <v>1501</v>
       </c>
       <c r="G22" t="n">
-        <v>0.005225603243317268</v>
+        <v>0.004857904846363884</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01686888434670188</v>
+        <v>0.02175575070178256</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0008529835963490038</v>
+        <v>0.0006804644693719577</v>
       </c>
       <c r="J22" t="n">
-        <v>0.2058463726586443</v>
+        <v>0.3109316703106816</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2613146014329863</v>
+        <v>0.292092310838373</v>
       </c>
       <c r="L22" t="n">
-        <v>11834.875</v>
+        <v>11784.875</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
@@ -1363,40 +1363,40 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5378237358884357</v>
+        <v>1.058313644871284</v>
       </c>
       <c r="D23" t="n">
-        <v>124.1004628562834</v>
+        <v>107.828371083814</v>
       </c>
       <c r="E23" t="n">
-        <v>8.919962525367739</v>
+        <v>26.31743311882019</v>
       </c>
       <c r="F23" t="n">
-        <v>855.5</v>
+        <v>2274.5</v>
       </c>
       <c r="G23" t="n">
-        <v>0.005047866189675476</v>
+        <v>0.005811835034020654</v>
       </c>
       <c r="H23" t="n">
-        <v>0.01766028404653824</v>
+        <v>0.03480747436252501</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0007911359013500977</v>
+        <v>0.001256871476526665</v>
       </c>
       <c r="J23" t="n">
-        <v>0.220556384446798</v>
+        <v>0.5452141219933211</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2650404567610504</v>
+        <v>0.3279627048314345</v>
       </c>
       <c r="L23" t="n">
-        <v>11834.875</v>
+        <v>11784.875</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -1404,122 +1404,122 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
-        <v>1.212254683318466</v>
+        <v>1.125</v>
       </c>
       <c r="D24" t="n">
-        <v>187.6897254494817</v>
+        <v>105.5209632106541</v>
       </c>
       <c r="E24" t="n">
-        <v>5.233383297920227</v>
+        <v>19.02939414978027</v>
       </c>
       <c r="F24" t="n">
-        <v>962</v>
+        <v>2008</v>
       </c>
       <c r="G24" t="n">
-        <v>0.005695017904415395</v>
+        <v>0.005775455510362666</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0192537297876045</v>
+        <v>0.03744997381656728</v>
       </c>
       <c r="I24" t="n">
-        <v>0.00106830764812792</v>
+        <v>0.001221066807178741</v>
       </c>
       <c r="J24" t="n">
-        <v>0.242242442492245</v>
+        <v>0.6047947910600352</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2674882805546719</v>
+        <v>0.329053943685597</v>
       </c>
       <c r="L24" t="n">
-        <v>11834.875</v>
+        <v>12192.875</v>
       </c>
       <c r="M24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8384615384615385</v>
+        <v>0.4232142857142858</v>
       </c>
       <c r="D25" t="n">
-        <v>186.4768057898829</v>
+        <v>87.4186299016587</v>
       </c>
       <c r="E25" t="n">
-        <v>4.343703746795654</v>
+        <v>4.24333131313324</v>
       </c>
       <c r="F25" t="n">
-        <v>810</v>
+        <v>362.5</v>
       </c>
       <c r="G25" t="n">
-        <v>0.005621273847726677</v>
+        <v>0.005087275813874746</v>
       </c>
       <c r="H25" t="n">
-        <v>0.01905596187298115</v>
+        <v>0.01911205682868049</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001038636310283955</v>
+        <v>0.0008227204275450537</v>
       </c>
       <c r="J25" t="n">
-        <v>0.2503201855823051</v>
+        <v>0.2303364703296368</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2723944187164307</v>
+        <v>0.286556225386506</v>
       </c>
       <c r="L25" t="n">
-        <v>11834.875</v>
+        <v>13768.875</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5840426016112148</v>
+        <v>0.7679127725856698</v>
       </c>
       <c r="D26" t="n">
-        <v>124.3072262150274</v>
+        <v>105.1346382665297</v>
       </c>
       <c r="E26" t="n">
-        <v>5.999239325523376</v>
+        <v>4.733776807785034</v>
       </c>
       <c r="F26" t="n">
-        <v>736.5</v>
+        <v>497.5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.004982838989025764</v>
+        <v>0.005444502280452911</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01773026418086909</v>
+        <v>0.02397290591361738</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0007545709592521198</v>
+        <v>0.001096268780965857</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2226950364016437</v>
+        <v>0.2982158630680815</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2654125542727302</v>
+        <v>0.3065736906586768</v>
       </c>
       <c r="L26" t="n">
-        <v>15130.875</v>
+        <v>13768.875</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -1527,125 +1527,84 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>1.061199806482825</v>
+        <v>0.7546346782988005</v>
       </c>
       <c r="D27" t="n">
-        <v>176.2425749574856</v>
+        <v>86.131468371797</v>
       </c>
       <c r="E27" t="n">
-        <v>7.535017490386963</v>
+        <v>37.79106593132019</v>
       </c>
       <c r="F27" t="n">
-        <v>1188.5</v>
+        <v>3255</v>
       </c>
       <c r="G27" t="n">
-        <v>0.005516594546096127</v>
+        <v>0.005516818040849857</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01962404101685043</v>
+        <v>0.03319259130213746</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0009841692213093422</v>
+        <v>0.00108673926105676</v>
       </c>
       <c r="J27" t="n">
-        <v>0.2566734736298893</v>
+        <v>0.5735643673361394</v>
       </c>
       <c r="K27" t="n">
-        <v>0.2758860134308642</v>
+        <v>0.3212084708076021</v>
       </c>
       <c r="L27" t="n">
-        <v>15130.875</v>
+        <v>13768.875</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="B28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.921981308411215</v>
+        <v>0.4990647296177862</v>
       </c>
       <c r="D28" t="n">
-        <v>197.632693478799</v>
+        <v>74.44515312937659</v>
       </c>
       <c r="E28" t="n">
-        <v>4.030252456665039</v>
+        <v>22.17038440704346</v>
       </c>
       <c r="F28" t="n">
-        <v>793</v>
+        <v>1636</v>
       </c>
       <c r="G28" t="n">
-        <v>0.005772978931569606</v>
+        <v>0.005014643667565393</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02023537173725734</v>
+        <v>0.02459432464392323</v>
       </c>
       <c r="I28" t="n">
-        <v>0.001124564096727104</v>
+        <v>0.0007743568792897375</v>
       </c>
       <c r="J28" t="n">
-        <v>0.2706680616272518</v>
+        <v>0.3723114877468062</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2814493517932066</v>
+        <v>0.3001420923970632</v>
       </c>
       <c r="L28" t="n">
-        <v>15130.875</v>
+        <v>13768.875</v>
       </c>
       <c r="M28" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>10</v>
-      </c>
-      <c r="B29" t="n">
-        <v>8</v>
-      </c>
-      <c r="C29" t="n">
-        <v>1.071090047393365</v>
-      </c>
-      <c r="D29" t="n">
-        <v>174.8051370186591</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6.532988786697388</v>
-      </c>
-      <c r="F29" t="n">
-        <v>1142</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.005396486680089577</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.01996231898990287</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.0009509914689719397</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.2761003515124321</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2759841268062592</v>
-      </c>
-      <c r="L29" t="n">
-        <v>15130.875</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
